--- a/artfynd/A 689-2026 artfynd.xlsx
+++ b/artfynd/A 689-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130982633</v>
       </c>
       <c r="B2" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 689-2026 artfynd.xlsx
+++ b/artfynd/A 689-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,6 +787,120 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>131082382</v>
+      </c>
+      <c r="B3" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Öjsjön-Falerum, Sm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>572824</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6447033</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Åtvidaberg</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Gärdserum</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Revirparet i delområde av sitt revir</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Steve Daurer</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 689-2026 artfynd.xlsx
+++ b/artfynd/A 689-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130982633</v>
       </c>
       <c r="B2" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 689-2026 artfynd.xlsx
+++ b/artfynd/A 689-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130982633</v>
       </c>
       <c r="B2" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 689-2026 artfynd.xlsx
+++ b/artfynd/A 689-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130982633</v>
       </c>
       <c r="B2" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
